--- a/input/Securities_Master.xlsx
+++ b/input/Securities_Master.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="71">
   <si>
     <t xml:space="preserve">For</t>
   </si>
@@ -55,106 +55,88 @@
     <t xml:space="preserve">BRKB</t>
   </si>
   <si>
-    <t xml:space="preserve">$5323.69</t>
-  </si>
-  <si>
     <t xml:space="preserve">VGT</t>
   </si>
   <si>
-    <t xml:space="preserve">$4687.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">VOO</t>
   </si>
   <si>
-    <t xml:space="preserve">$9686.75</t>
-  </si>
-  <si>
     <t xml:space="preserve">VTI</t>
   </si>
   <si>
-    <t xml:space="preserve">$25035.53</t>
-  </si>
-  <si>
     <t xml:space="preserve">VXUS</t>
   </si>
   <si>
-    <t xml:space="preserve">$4651.90</t>
-  </si>
-  <si>
     <t xml:space="preserve">VYM</t>
   </si>
   <si>
-    <t xml:space="preserve">$1274.75</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROTH IRA</t>
   </si>
   <si>
-    <t xml:space="preserve">$8080.51</t>
+    <t xml:space="preserve">8080.51</t>
   </si>
   <si>
     <t xml:space="preserve">AMZN</t>
   </si>
   <si>
-    <t xml:space="preserve">$5230.09</t>
+    <t xml:space="preserve">5230.09</t>
   </si>
   <si>
     <t xml:space="preserve">VUG</t>
   </si>
   <si>
-    <t xml:space="preserve">$1565.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$899.62</t>
+    <t xml:space="preserve">1565.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">899.62</t>
   </si>
   <si>
     <t xml:space="preserve">VIG</t>
   </si>
   <si>
-    <t xml:space="preserve">$846.66</t>
+    <t xml:space="preserve">846.66</t>
   </si>
   <si>
     <t xml:space="preserve">NVDA</t>
   </si>
   <si>
-    <t xml:space="preserve">$968.44</t>
+    <t xml:space="preserve">968.44</t>
   </si>
   <si>
     <t xml:space="preserve">AAPL</t>
   </si>
   <si>
-    <t xml:space="preserve">$530.77</t>
+    <t xml:space="preserve">530.77</t>
   </si>
   <si>
     <t xml:space="preserve">JNJ</t>
   </si>
   <si>
-    <t xml:space="preserve">$612.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$112.09</t>
+    <t xml:space="preserve">612.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.09</t>
   </si>
   <si>
     <t xml:space="preserve">Rollover IRA</t>
   </si>
   <si>
-    <t xml:space="preserve">$17739.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4974.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3911.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3846.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3256.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.14</t>
+    <t xml:space="preserve">17739.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4974.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3911.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3846.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3256.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
   </si>
   <si>
     <t xml:space="preserve">REPAIRIFY, INC.</t>
@@ -163,31 +145,31 @@
     <t xml:space="preserve">HNACX</t>
   </si>
   <si>
-    <t xml:space="preserve">$1666.26</t>
+    <t xml:space="preserve">1666.26</t>
   </si>
   <si>
     <t xml:space="preserve">FFIKX</t>
   </si>
   <si>
-    <t xml:space="preserve">$861.20</t>
+    <t xml:space="preserve">861.20</t>
   </si>
   <si>
     <t xml:space="preserve">MVCKX</t>
   </si>
   <si>
-    <t xml:space="preserve">$555.57</t>
+    <t xml:space="preserve">555.57</t>
   </si>
   <si>
     <t xml:space="preserve">FSMDX</t>
   </si>
   <si>
-    <t xml:space="preserve">$576.34</t>
+    <t xml:space="preserve">576.34</t>
   </si>
   <si>
     <t xml:space="preserve">FXNAX</t>
   </si>
   <si>
-    <t xml:space="preserve">$381.42</t>
+    <t xml:space="preserve">381.42</t>
   </si>
   <si>
     <t xml:space="preserve">Active</t>
@@ -327,7 +309,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,6 +319,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,18 +346,18 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="H68" activeCellId="0" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,8 +399,11 @@
       <c r="E2" s="0" t="n">
         <v>10.679</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="F2" s="0" t="n">
+        <v>5323.69</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,13 +417,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>6.189</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
+      <c r="F3" s="1" t="n">
+        <v>4687.67</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,13 +440,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>15.316</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
+      <c r="F4" s="0" t="n">
+        <v>9686.75</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,13 +463,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>73.886</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="1" t="n">
+        <v>25035.53</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,13 +486,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>60.141</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
+      <c r="F6" s="1" t="n">
+        <v>4651.9</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,13 +509,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>8.742</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
+      <c r="F7" s="1" t="n">
+        <v>1274.75</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
@@ -534,7 +538,10 @@
         <v>16.209</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,16 +552,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>22.441</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,16 +575,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3.205</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,16 +598,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2.655</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,16 +621,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>3.815</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,16 +644,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5.148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,16 +667,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1.986</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,16 +690,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,16 +713,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.148</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,16 +736,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>52.353</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,16 +759,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>22.413</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,16 +782,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>50.565</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,16 +805,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>5.078</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>10</v>
@@ -794,7 +837,10 @@
         <v>6.532</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,16 +851,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,16 +874,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>14.244</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,16 +897,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>49.043</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,16 +920,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>17.427</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,16 +943,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>15.435</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,16 +966,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>36.154</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,13 +986,13 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2.91904</v>
@@ -946,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0.85108</v>
@@ -970,13 +1034,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2.23009</v>
@@ -994,13 +1058,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1.2741</v>
@@ -1018,13 +1082,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>32.57514</v>
@@ -1041,13 +1105,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>70.58937</v>
@@ -1064,13 +1128,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>46.17945</v>
@@ -1087,13 +1151,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>22.72279</v>
@@ -1110,13 +1174,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>11.16572</v>
@@ -1133,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>15.83972</v>
@@ -1153,16 +1217,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>7.57766</v>
@@ -1177,16 +1241,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>4.3089</v>
@@ -1201,16 +1265,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>2.9274</v>
@@ -1225,16 +1289,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1.89713</v>
@@ -1249,16 +1313,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>2.93923</v>
@@ -1273,16 +1337,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>7.92531</v>
@@ -1290,19 +1354,22 @@
       <c r="F43" s="0" t="n">
         <v>3266.81</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>4.27233</v>
@@ -1310,19 +1377,22 @@
       <c r="F44" s="0" t="n">
         <v>3235.95</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>9.25045</v>
@@ -1330,19 +1400,22 @@
       <c r="F45" s="0" t="n">
         <v>3134.42</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>7.60896</v>
@@ -1350,19 +1423,22 @@
       <c r="F46" s="0" t="n">
         <v>3033.54</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>10.4035</v>
@@ -1370,19 +1446,22 @@
       <c r="F47" s="0" t="n">
         <v>2961.98</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>5.82816</v>
@@ -1390,19 +1469,22 @@
       <c r="F48" s="0" t="n">
         <v>2905.45</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>9.32344</v>
@@ -1410,19 +1492,22 @@
       <c r="F49" s="0" t="n">
         <v>2904.62</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>19.99731</v>
@@ -1430,19 +1515,22 @@
       <c r="F50" s="0" t="n">
         <v>2877.81</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>15.56784</v>
@@ -1450,19 +1538,22 @@
       <c r="F51" s="0" t="n">
         <v>2816.53</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>9.70859</v>
@@ -1470,19 +1561,22 @@
       <c r="F52" s="0" t="n">
         <v>2799.18</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>7.43928</v>
@@ -1490,19 +1584,22 @@
       <c r="F53" s="0" t="n">
         <v>3708.63</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>7.51234</v>
@@ -1510,19 +1607,22 @@
       <c r="F54" s="0" t="n">
         <v>3096.59</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>4.0453</v>
@@ -1530,19 +1630,22 @@
       <c r="F55" s="0" t="n">
         <v>3063.99</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>7.21257</v>
@@ -1550,19 +1653,22 @@
       <c r="F56" s="0" t="n">
         <v>2875.51</v>
       </c>
+      <c r="G56" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>9.86149</v>
@@ -1570,19 +1676,22 @@
       <c r="F57" s="0" t="n">
         <v>2807.66</v>
       </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>8.84374</v>
@@ -1590,19 +1699,22 @@
       <c r="F58" s="0" t="n">
         <v>2755.18</v>
       </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>18.98061</v>
@@ -1610,19 +1722,22 @@
       <c r="F59" s="0" t="n">
         <v>2731.5</v>
       </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>14.75725</v>
@@ -1630,19 +1745,22 @@
       <c r="F60" s="0" t="n">
         <v>2669.88</v>
       </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>9.21506</v>
@@ -1650,19 +1768,22 @@
       <c r="F61" s="0" t="n">
         <v>2656.89</v>
       </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>5.75366</v>
@@ -1670,19 +1791,22 @@
       <c r="F62" s="0" t="n">
         <v>1949.57</v>
       </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>2.77177</v>
@@ -1697,16 +1821,16 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>2.57072</v>
@@ -1721,16 +1845,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>3.73151</v>
@@ -1745,16 +1869,16 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1.63995</v>
@@ -1769,16 +1893,16 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>3.02577</v>
@@ -1793,22 +1917,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>0.01377</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1.11</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
